--- a/data/trans_dic/P25_11-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25_11-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece trastornos depresivos</t>
+          <t>Población que padece trastornos depresivos (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>20,19%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,26%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>16,87%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>16,22%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>16,25%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15,03%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>16,88%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,06; 12,66</t>
+          <t>3,47; 22,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,67; 17,51</t>
+          <t>3,36; 23,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,41; 14,15</t>
+          <t>3,58; 24,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,68; 26,86</t>
+          <t>4,8; 31,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,97; 21,84</t>
+          <t>11,26; 33,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,5; 21,62</t>
+          <t>11,1; 34,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,47; 18,51</t>
+          <t>10,02; 30,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,84; 17,33</t>
+          <t>7,51; 30,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,01; 15,76</t>
+          <t>9,65; 24,77</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>9,8; 26,01</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>8,79; 23,74</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>8,39; 26,32</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>7,07%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6,97%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7,78%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>11,08%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,79; 8,66</t>
+          <t>1,98; 9,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 5,68</t>
+          <t>1,08; 6,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 12,44</t>
+          <t>1,92; 7,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,4; 13,76</t>
+          <t>2,91; 12,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,06; 14,13</t>
+          <t>5,89; 14,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,21; 16,87</t>
+          <t>6,83; 15,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,75; 9,52</t>
+          <t>7,72; 16,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,97; 8,86</t>
+          <t>11,81; 22,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,79; 11,55</t>
+          <t>4,65; 10,09</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4,81; 10,1</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>5,38; 10,64</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>8,12; 14,92</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>4,71%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5,33%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4,88%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5,83%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 7,8</t>
+          <t>1,62; 9,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 5,99</t>
+          <t>1,32; 8,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 6,79</t>
+          <t>1,43; 9,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,52; 8,69</t>
+          <t>2,39; 12,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,98; 14,5</t>
+          <t>2,24; 9,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 10,21</t>
+          <t>3,66; 11,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,16; 7,03</t>
+          <t>2,72; 9,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,89; 9,63</t>
+          <t>3,13; 10,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,36; 7,18</t>
+          <t>2,86; 7,76</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3,35; 8,49</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2,92; 7,72</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3,47; 9,02</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,92; 6,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 5,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,19; 7,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,72; 12,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,79; 13,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,83; 13,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,87; 8,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,36; 9,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,24; 9,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5,47%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,6%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7,93%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9,1%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10,34%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10,24%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12,51%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7,42%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7,61%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7,75%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10,29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3,27; 8,36</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,67; 7,48</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3,02; 7,87</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5,31; 11,76</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6,55; 12,11</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7,56; 13,48</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7,47; 13,19</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>9,63; 16,24</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5,56; 9,34</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>5,9; 9,62</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5,9; 9,74</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>8,15; 13,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece trastornos depresivos (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>15342</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11613</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12735</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>29563</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>28284</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>24296</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>22530</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>35526</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>43626</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>35909</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>35266</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>65088</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4477; 29215</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3540; 24527</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4082; 27685</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8392; 55417</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>15779; 47545</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12820; 39864</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>12083; 36790</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>15808; 63752</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>25962; 66629</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>21653; 57471</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>20629; 55727</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>32363; 101494</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19388</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12710</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>16500</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>33082</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>43806</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>39935</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>43738</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>78969</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>63194</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>52645</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>60238</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>112051</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>8496; 40775</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4070; 26143</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7653; 31064</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>15012; 63473</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>27339; 65533</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>25893; 57638</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>28950; 61921</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>58414; 109910</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>41612; 90222</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>36304; 76257</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>41648; 82401</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>82108; 150936</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>14017</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10679</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>11401</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>19933</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>21862</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>22578</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>18026</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>23760</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>35880</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>33257</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>29427</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>43692</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5387; 32830</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3692; 24705</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3939; 26362</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8357; 43991</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9599; 40423</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12612; 39023</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8892; 31482</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12524; 40628</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>21752; 59088</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>20880; 52966</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>17596; 46526</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>26002; 67575</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>48747</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>35002</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>40637</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>82577</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>93953</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>86809</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>84294</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>138255</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>142700</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>121811</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>124931</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>220832</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>29116; 74487</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>20328; 56946</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>23856; 62080</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>55298; 122518</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>67651; 125123</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>63435; 113141</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>61528; 108569</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>106408; 179411</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>107060; 179651</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>94493; 153971</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>95191; 156965</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>175025; 278933</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
